--- a/data/trans_dic/P55$auxiliar-Dificultad-trans_dic.xlsx
+++ b/data/trans_dic/P55$auxiliar-Dificultad-trans_dic.xlsx
@@ -709,37 +709,37 @@
       </c>
       <c r="C5" s="5" t="inlineStr"/>
       <c r="D5" s="5" t="n">
-        <v>0.04482646081958347</v>
+        <v>0.04404669839042005</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.01948399604783284</v>
+        <v>0.01995844469556696</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.07132483091304496</v>
+        <v>0.07600811516779411</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.01805003236194709</v>
+        <v>0.01818403513379824</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.1194839014886745</v>
+        <v>0.1285149304979748</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.01278375980299766</v>
+        <v>0.01265944212688424</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.2103688310948886</v>
+        <v>0.2188220929680631</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.01244255875543039</v>
+        <v>0.01319006548247211</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.11121040229009</v>
+        <v>0.1168897166965614</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.02090048497142509</v>
+        <v>0.02478566363943488</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.2016259768264163</v>
+        <v>0.2017904194679965</v>
       </c>
     </row>
     <row r="6">
@@ -751,37 +751,37 @@
       </c>
       <c r="C6" s="5" t="inlineStr"/>
       <c r="D6" s="5" t="n">
-        <v>0.2473953619094467</v>
+        <v>0.2331928929475596</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.1474992193764166</v>
+        <v>0.1716799019539503</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.3133423844251629</v>
+        <v>0.3226781813981507</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.0975136318364962</v>
+        <v>0.102847978651661</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.2831526242067454</v>
+        <v>0.2780258996539259</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.122729845283624</v>
+        <v>0.1130336844238256</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.3637315928123687</v>
+        <v>0.3591324707456515</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.07581182407272205</v>
+        <v>0.07166314955383027</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.240669244587803</v>
+        <v>0.2330954652512252</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.1086415979678072</v>
+        <v>0.1083499788305104</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.3218690511236537</v>
+        <v>0.3196621718586171</v>
       </c>
     </row>
     <row r="7">
@@ -817,7 +817,7 @@
         <v>0.1326996182522231</v>
       </c>
       <c r="J7" s="5" t="n">
-        <v>0.227864100624966</v>
+        <v>0.2278641006249659</v>
       </c>
       <c r="K7" s="5" t="n">
         <v>0.0310537449736519</v>
@@ -847,31 +847,31 @@
         <v>0</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.1314134451759486</v>
+        <v>0.1425410888792168</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.01789674663658015</v>
+        <v>0.0178875374650956</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.1148003710142658</v>
+        <v>0.1137904329726237</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.06451865758421056</v>
+        <v>0.06355189393055183</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.1745360301923629</v>
+        <v>0.1791209317868479</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0</v>
+        <v>0.009781830521942609</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.0857668788201134</v>
+        <v>0.0853969971380278</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.04579377712370095</v>
+        <v>0.04684435546444657</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.177524057358563</v>
+        <v>0.1753710513805642</v>
       </c>
     </row>
     <row r="9">
@@ -883,37 +883,37 @@
       </c>
       <c r="C9" s="5" t="inlineStr"/>
       <c r="D9" s="5" t="n">
-        <v>0.09953395446324391</v>
+        <v>0.1323065277342682</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.142112407529449</v>
+        <v>0.1429767274928449</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.3146312931497132</v>
+        <v>0.3316140662134827</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.1521812531068878</v>
+        <v>0.1512871584282775</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.2846549651942409</v>
+        <v>0.272573470740175</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.2385106172871906</v>
+        <v>0.2384702019526826</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.2832942296613398</v>
+        <v>0.2862755567451223</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.08104867577870975</v>
+        <v>0.08046322550721925</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.2036807194663514</v>
+        <v>0.2073478976652436</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.1713405866908148</v>
+        <v>0.1773407387371038</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.2688747770648733</v>
+        <v>0.2706801660720202</v>
       </c>
     </row>
     <row r="10">
@@ -937,7 +937,7 @@
         <v>0.02714279219215444</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>0.2292584438527262</v>
+        <v>0.2292584438527263</v>
       </c>
       <c r="G10" s="5" t="n">
         <v>0.02538582088513607</v>
@@ -973,37 +973,37 @@
       </c>
       <c r="C11" s="5" t="inlineStr"/>
       <c r="D11" s="5" t="n">
-        <v>0.0265418985948289</v>
+        <v>0.02767348342539926</v>
       </c>
       <c r="E11" s="5" t="n">
         <v>0</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.136269269125987</v>
+        <v>0.1331743450143769</v>
       </c>
       <c r="G11" s="5" t="n">
         <v>0</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.1069488684668819</v>
+        <v>0.1090561598671045</v>
       </c>
       <c r="I11" s="5" t="n">
         <v>0</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.1944991669762841</v>
+        <v>0.201459668623367</v>
       </c>
       <c r="K11" s="5" t="n">
         <v>0</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.09762642804923935</v>
+        <v>0.09953235232526952</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.008808650162540059</v>
+        <v>0.008588359317225727</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.1968733431319224</v>
+        <v>0.2000785487190765</v>
       </c>
     </row>
     <row r="12">
@@ -1015,37 +1015,37 @@
       </c>
       <c r="C12" s="5" t="inlineStr"/>
       <c r="D12" s="5" t="n">
-        <v>0.2393596425103971</v>
+        <v>0.2477383481071687</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.144748094780756</v>
+        <v>0.1261503067409306</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.3693707589729456</v>
+        <v>0.3846422169277531</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.1052680379188917</v>
+        <v>0.1161039874204159</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.3321775541346105</v>
+        <v>0.3347275376301913</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.1215634207462208</v>
+        <v>0.1197267706862713</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.3443770843725716</v>
+        <v>0.3459816970662143</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.0820731769894901</v>
+        <v>0.08842846869958698</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.2568229080604543</v>
+        <v>0.2549222902539073</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.1022225131290456</v>
+        <v>0.103271005549391</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.3233764390085959</v>
+        <v>0.3231479224384162</v>
       </c>
     </row>
     <row r="13">
@@ -1081,7 +1081,7 @@
         <v>0</v>
       </c>
       <c r="J13" s="5" t="n">
-        <v>0.1637179935923221</v>
+        <v>0.163717993592322</v>
       </c>
       <c r="K13" s="5" t="n">
         <v>0</v>
@@ -1093,7 +1093,7 @@
         <v>0.01995112482013432</v>
       </c>
       <c r="N13" s="5" t="n">
-        <v>0.1347563543341767</v>
+        <v>0.1347563543341768</v>
       </c>
     </row>
     <row r="14">
@@ -1111,25 +1111,25 @@
         <v>0</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.04369002540688961</v>
+        <v>0.04438179970389395</v>
       </c>
       <c r="G14" s="5" t="inlineStr"/>
       <c r="H14" s="5" t="n">
-        <v>0.03686227043956251</v>
+        <v>0</v>
       </c>
       <c r="I14" s="5" t="inlineStr"/>
       <c r="J14" s="5" t="n">
-        <v>0.1007761691926513</v>
+        <v>0.1020413274898269</v>
       </c>
       <c r="K14" s="5" t="inlineStr"/>
       <c r="L14" s="5" t="n">
-        <v>0.02444110607330547</v>
+        <v>0.02442822402754059</v>
       </c>
       <c r="M14" s="5" t="n">
         <v>0</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.08940585900760199</v>
+        <v>0.09321850220351915</v>
       </c>
     </row>
     <row r="15">
@@ -1141,31 +1141,31 @@
       </c>
       <c r="C15" s="5" t="inlineStr"/>
       <c r="D15" s="5" t="n">
-        <v>0.3667141021316017</v>
+        <v>0.3145546146052153</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.1992094247637026</v>
+        <v>0.2462812746563085</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.2027152762344849</v>
+        <v>0.1950949450663629</v>
       </c>
       <c r="G15" s="5" t="inlineStr"/>
       <c r="H15" s="5" t="n">
-        <v>0.2946699951839321</v>
+        <v>0.2833153645678226</v>
       </c>
       <c r="I15" s="5" t="inlineStr"/>
       <c r="J15" s="5" t="n">
-        <v>0.2459442079490019</v>
+        <v>0.2448755050070658</v>
       </c>
       <c r="K15" s="5" t="inlineStr"/>
       <c r="L15" s="5" t="n">
-        <v>0.2221064181241162</v>
+        <v>0.2320431916352363</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.1032838415451407</v>
+        <v>0.09954348438377579</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.2008211399156653</v>
+        <v>0.2024280475475437</v>
       </c>
     </row>
     <row r="16">
@@ -1225,37 +1225,37 @@
       </c>
       <c r="C17" s="5" t="inlineStr"/>
       <c r="D17" s="5" t="n">
-        <v>0.04511598758626558</v>
+        <v>0.03825493394600559</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.01971747892503479</v>
+        <v>0.01378211984890578</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.1353880626148543</v>
+        <v>0.1308960816422092</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.02311865167166557</v>
+        <v>0.01966586579132908</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.1459575278948201</v>
+        <v>0.141279206006194</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.03741593546905669</v>
+        <v>0.03590966672688799</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.2111746774692626</v>
+        <v>0.2064791913920022</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.01271196993670665</v>
+        <v>0.01254948551781727</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.1139602727534371</v>
+        <v>0.1183575556010268</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.0367635896699199</v>
+        <v>0.03667421109532923</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.1955206842927322</v>
+        <v>0.1930783128330986</v>
       </c>
     </row>
     <row r="18">
@@ -1267,37 +1267,37 @@
       </c>
       <c r="C18" s="5" t="inlineStr"/>
       <c r="D18" s="5" t="n">
-        <v>0.1385373182159325</v>
+        <v>0.1365650889466758</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.08879917586791615</v>
+        <v>0.08442230945455312</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.2314518891251816</v>
+        <v>0.2262843774821481</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.08127590229947874</v>
+        <v>0.07540466244820741</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.2353860476382015</v>
+        <v>0.2420881038951252</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.1070027903809414</v>
+        <v>0.1084754187656749</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.278935141579008</v>
+        <v>0.2728072658683187</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.05140720754906391</v>
+        <v>0.04926659134891596</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.1898879526186892</v>
+        <v>0.1874088540814609</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.08928130550126695</v>
+        <v>0.08862871467386244</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.2520706256028498</v>
+        <v>0.2491757927928586</v>
       </c>
     </row>
     <row r="19">
@@ -1569,37 +1569,37 @@
       </c>
       <c r="C6" s="6" t="inlineStr"/>
       <c r="D6" s="6" t="n">
-        <v>2148</v>
+        <v>2110</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>769</v>
+        <v>788</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>1929</v>
+        <v>2056</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>2010</v>
+        <v>2025</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>11748</v>
+        <v>12635</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>1364</v>
+        <v>1351</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>18061</v>
+        <v>18787</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>1872</v>
+        <v>1984</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>16262</v>
+        <v>17093</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>3055</v>
+        <v>3623</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>22765</v>
+        <v>22783</v>
       </c>
     </row>
     <row r="7">
@@ -1611,37 +1611,37 @@
       </c>
       <c r="C7" s="6" t="inlineStr"/>
       <c r="D7" s="6" t="n">
-        <v>11852</v>
+        <v>11172</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>5825</v>
+        <v>6780</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>8476</v>
+        <v>8729</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>10859</v>
+        <v>11453</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>27839</v>
+        <v>27335</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>13095</v>
+        <v>12061</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>31229</v>
+        <v>30834</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>11406</v>
+        <v>10782</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>35193</v>
+        <v>34085</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>15882</v>
+        <v>15840</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>36341</v>
+        <v>36092</v>
       </c>
     </row>
     <row r="8">
@@ -1751,31 +1751,31 @@
         <v>0</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>7231</v>
+        <v>7843</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>10796</v>
+        <v>10701</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>4675</v>
+        <v>4605</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>21534</v>
+        <v>22100</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>0</v>
+        <v>1071</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>11594</v>
+        <v>11544</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>4846</v>
+        <v>4957</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>31671</v>
+        <v>31287</v>
       </c>
     </row>
     <row r="11">
@@ -1787,37 +1787,37 @@
       </c>
       <c r="C11" s="6" t="inlineStr"/>
       <c r="D11" s="6" t="n">
-        <v>4094</v>
+        <v>5442</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>4741</v>
+        <v>4770</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>17313</v>
+        <v>18247</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>9020</v>
+        <v>8967</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>26770</v>
+        <v>25634</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>17283</v>
+        <v>17281</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>34953</v>
+        <v>35321</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>8874</v>
+        <v>8810</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>27534</v>
+        <v>28029</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>18132</v>
+        <v>18767</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>47969</v>
+        <v>48291</v>
       </c>
     </row>
     <row r="12">
@@ -1921,37 +1921,37 @@
       </c>
       <c r="C14" s="6" t="inlineStr"/>
       <c r="D14" s="6" t="n">
-        <v>1063</v>
+        <v>1109</v>
       </c>
       <c r="E14" s="6" t="n">
         <v>0</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>4984</v>
+        <v>4871</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>6192</v>
+        <v>6314</v>
       </c>
       <c r="I14" s="6" t="n">
         <v>0</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>16612</v>
+        <v>17206</v>
       </c>
       <c r="K14" s="6" t="n">
         <v>0</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>9564</v>
+        <v>9751</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>819</v>
+        <v>798</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>24015</v>
+        <v>24406</v>
       </c>
     </row>
     <row r="15">
@@ -1963,37 +1963,37 @@
       </c>
       <c r="C15" s="6" t="inlineStr"/>
       <c r="D15" s="6" t="n">
-        <v>9590</v>
+        <v>9926</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>4232</v>
+        <v>3688</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>13510</v>
+        <v>14068</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>4393</v>
+        <v>4845</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>19233</v>
+        <v>19381</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>7747</v>
+        <v>7630</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>29413</v>
+        <v>29550</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>5332</v>
+        <v>5745</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>25161</v>
+        <v>24974</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>9503</v>
+        <v>9600</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>39447</v>
+        <v>39419</v>
       </c>
     </row>
     <row r="16">
@@ -2103,15 +2103,15 @@
         <v>0</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>2173</v>
+        <v>2207</v>
       </c>
       <c r="G18" s="6" t="inlineStr"/>
       <c r="H18" s="6" t="n">
-        <v>1038</v>
+        <v>0</v>
       </c>
       <c r="I18" s="6" t="inlineStr"/>
       <c r="J18" s="6" t="n">
-        <v>5708</v>
+        <v>5779</v>
       </c>
       <c r="K18" s="6" t="inlineStr"/>
       <c r="L18" s="6" t="n">
@@ -2121,7 +2121,7 @@
         <v>0</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>9510</v>
+        <v>9916</v>
       </c>
     </row>
     <row r="19">
@@ -2133,31 +2133,31 @@
       </c>
       <c r="C19" s="6" t="inlineStr"/>
       <c r="D19" s="6" t="n">
-        <v>5852</v>
+        <v>5020</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>3353</v>
+        <v>4146</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>10082</v>
+        <v>9703</v>
       </c>
       <c r="G19" s="6" t="inlineStr"/>
       <c r="H19" s="6" t="n">
-        <v>8297</v>
+        <v>7977</v>
       </c>
       <c r="I19" s="6" t="inlineStr"/>
       <c r="J19" s="6" t="n">
-        <v>13929</v>
+        <v>13869</v>
       </c>
       <c r="K19" s="6" t="inlineStr"/>
       <c r="L19" s="6" t="n">
-        <v>9798</v>
+        <v>10236</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>4149</v>
+        <v>3999</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>21362</v>
+        <v>21532</v>
       </c>
     </row>
     <row r="20">
@@ -2261,37 +2261,37 @@
       </c>
       <c r="C22" s="6" t="inlineStr"/>
       <c r="D22" s="6" t="n">
-        <v>6545</v>
+        <v>5550</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>2345</v>
+        <v>1639</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>22798</v>
+        <v>22041</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>5187</v>
+        <v>4412</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>40638</v>
+        <v>39335</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>9961</v>
+        <v>9560</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>74181</v>
+        <v>72532</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>4409</v>
+        <v>4353</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>48261</v>
+        <v>50123</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>14160</v>
+        <v>14125</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>101606</v>
+        <v>100336</v>
       </c>
     </row>
     <row r="23">
@@ -2303,37 +2303,37 @@
       </c>
       <c r="C23" s="6" t="inlineStr"/>
       <c r="D23" s="6" t="n">
-        <v>20097</v>
+        <v>19811</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>10560</v>
+        <v>10040</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>38973</v>
+        <v>38103</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>18236</v>
+        <v>16918</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>65537</v>
+        <v>67403</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>28488</v>
+        <v>28880</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>97984</v>
+        <v>95832</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>17830</v>
+        <v>17088</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>80416</v>
+        <v>79366</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>34387</v>
+        <v>34136</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>130993</v>
+        <v>129488</v>
       </c>
     </row>
     <row r="24">
